--- a/public/formatos/formato_excel_crear_fichas.xlsx
+++ b/public/formatos/formato_excel_crear_fichas.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aprendiz\Documents\Yeickon2025\eventos\frontend_eventos\public\formatos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A18E1B-20E8-4487-9DE8-6DF732CE3FA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DATOS FICHAS" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="DATOS FICHAS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,90 +25,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t xml:space="preserve">FICHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIPO DE PROGRAMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FECHA INICIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FECHA FINALIZACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIDER DE FICHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC LIDER DE FICHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CÓDIGO PROGRAMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VERSIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROGRAMA DE FORMACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUNICIPIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TÉCNICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08/07/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/07/2026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEPITO PERÉZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GESTIÓN ADMINISTRATIVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONTERÍA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUNES 06:00 13:59,MARTES 06:00  13:59,MIERCOLES 06:00 13:59,JUEVES 06:00 13:59,VIERNES 06:00 13:59,SABADO 06:00 13:59</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>FICHA</t>
+  </si>
+  <si>
+    <t>TIPO DE PROGRAMA</t>
+  </si>
+  <si>
+    <t>FECHA INICIO</t>
+  </si>
+  <si>
+    <t>FECHA FINALIZACIÓN</t>
+  </si>
+  <si>
+    <t>LIDER DE FICHA</t>
+  </si>
+  <si>
+    <t>CC LIDER DE FICHA</t>
+  </si>
+  <si>
+    <t>CÓDIGO PROGRAMA</t>
+  </si>
+  <si>
+    <t>VERSIÓN</t>
+  </si>
+  <si>
+    <t>PROGRAMA DE FORMACIÓN</t>
+  </si>
+  <si>
+    <t>MUNICIPIO</t>
+  </si>
+  <si>
+    <t>DIAS</t>
+  </si>
+  <si>
+    <t>TÉCNICO</t>
+  </si>
+  <si>
+    <t>08/07/2024</t>
+  </si>
+  <si>
+    <t>07/07/2026</t>
+  </si>
+  <si>
+    <t>PEPITO PERÉZ</t>
+  </si>
+  <si>
+    <t>GESTIÓN ADMINISTRATIVA</t>
+  </si>
+  <si>
+    <t>MONTERÍA</t>
+  </si>
+  <si>
+    <t>LUNES 06:00 13:59,MARTES 06:00  13:59,MIERCOLES 06:00 13:59,JUEVES 06:00 13:59,VIERNES 06:00 13:59,SABADO 06:00 13:59</t>
+  </si>
+  <si>
+    <t>AMBIENTE (OPCIONAL)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,7 +105,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -123,129 +113,100 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.7999"/>
+          <bgColor theme="4" tint="0.79989013336588644"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.7999"/>
+          <bgColor theme="4" tint="0.79989013336588644"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0e2841"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e8e8e8"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="e97132"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196b24"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0f9ed5"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="a02b93"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4ea72e"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607d"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -277,7 +238,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -301,7 +262,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -361,42 +322,41 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M13" activeCellId="0" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="19.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="29.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="39.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="65.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="27.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="116.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16380" min="19" style="1" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16381" style="1" width="11.53"/>
+    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="2" max="3" width="19.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="39.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="65.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="29.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="113" style="1" customWidth="1"/>
+    <col min="19" max="16380" width="11.44140625" style="1"/>
+    <col min="16381" max="16384" width="11.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -427,12 +387,15 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>2000001</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -447,13 +410,13 @@
       <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="2">
         <v>123456789</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="3">
         <v>122115</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="2">
         <v>100</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -462,52 +425,28 @@
       <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L9" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M13" s="4"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <conditionalFormatting sqref="A2:B2">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>COUNTIF(#REF!,#REF!)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:J2">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>COUNTIF(#REF!,#REF!)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{982C7035-2FCE-4868-B1BA-E8A3FC4DC0ED}">
-            <xm:f>COUNTIF(#REF!,#REF!)&gt;0</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="4" tint="0.7999"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>A2:B2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{A8564656-63E6-4DEE-9D61-1BBDF55B2049}">
-            <xm:f>COUNTIF(#REF!,#REF!)&gt;0</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="4" tint="0.7999"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:J2</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>